--- a/03-pandas/Data/mi_df_grafica.xlsx
+++ b/03-pandas/Data/mi_df_grafica.xlsx
@@ -7,56 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Titulos" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>[no title]</t>
-  </si>
-  <si>
-    <t>Boat Shapes</t>
-  </si>
-  <si>
-    <t>Camping, Anduze</t>
-  </si>
-  <si>
-    <t>Umea, Sweden</t>
-  </si>
-  <si>
-    <t>Self-Portrait</t>
-  </si>
-  <si>
-    <t>[colophon]</t>
-  </si>
-  <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>Blue Moon</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -80,30 +40,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,6 +53,41 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,82 +375,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="2" spans="2:2">
       <c r="B2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="3" spans="2:2">
       <c r="B3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="4" spans="2:2">
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="5" spans="2:2">
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="6" spans="2:2">
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="7" spans="2:2">
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="8" spans="2:2">
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="9" spans="2:2">
       <c r="B9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>